--- a/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6705,25 +6708,25 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>57792</v>
+        <v>56697</v>
       </c>
       <c r="C218">
-        <v>4841</v>
+        <v>4805</v>
       </c>
       <c r="D218">
         <v>71</v>
       </c>
       <c r="E218">
-        <v>4770</v>
+        <v>4735</v>
       </c>
       <c r="F218">
-        <v>52951</v>
+        <v>51892</v>
       </c>
       <c r="G218">
-        <v>3629</v>
+        <v>3927</v>
       </c>
       <c r="H218">
-        <v>49322</v>
+        <v>47965</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6731,25 +6734,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>58293</v>
+        <v>57221</v>
       </c>
       <c r="C219">
-        <v>4951</v>
+        <v>4910</v>
       </c>
       <c r="D219">
         <v>71</v>
       </c>
       <c r="E219">
-        <v>4881</v>
+        <v>4840</v>
       </c>
       <c r="F219">
-        <v>53342</v>
+        <v>52311</v>
       </c>
       <c r="G219">
-        <v>3722</v>
+        <v>4068</v>
       </c>
       <c r="H219">
-        <v>49620</v>
+        <v>48244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6757,25 +6760,25 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>58333</v>
+        <v>57157</v>
       </c>
       <c r="C220">
-        <v>4878</v>
+        <v>4749</v>
       </c>
       <c r="D220">
         <v>71</v>
       </c>
       <c r="E220">
-        <v>4807</v>
+        <v>4679</v>
       </c>
       <c r="F220">
-        <v>53455</v>
+        <v>52408</v>
       </c>
       <c r="G220">
-        <v>3903</v>
+        <v>4165</v>
       </c>
       <c r="H220">
-        <v>49552</v>
+        <v>48243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6783,25 +6786,25 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>59362</v>
+        <v>58214</v>
       </c>
       <c r="C221">
-        <v>4947</v>
+        <v>4846</v>
       </c>
       <c r="D221">
         <v>71</v>
       </c>
       <c r="E221">
-        <v>4876</v>
+        <v>4775</v>
       </c>
       <c r="F221">
-        <v>54416</v>
+        <v>53369</v>
       </c>
       <c r="G221">
-        <v>3933</v>
+        <v>4170</v>
       </c>
       <c r="H221">
-        <v>50483</v>
+        <v>49198</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6809,25 +6812,51 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>58819</v>
+        <v>57870</v>
       </c>
       <c r="C222">
-        <v>4849</v>
+        <v>4828</v>
       </c>
       <c r="D222">
         <v>71</v>
       </c>
       <c r="E222">
-        <v>4779</v>
+        <v>4757</v>
       </c>
       <c r="F222">
-        <v>53969</v>
+        <v>53042</v>
       </c>
       <c r="G222">
-        <v>3936</v>
+        <v>3932</v>
       </c>
       <c r="H222">
-        <v>50034</v>
+        <v>49110</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223">
+        <v>56685</v>
+      </c>
+      <c r="C223">
+        <v>4769</v>
+      </c>
+      <c r="D223">
+        <v>71</v>
+      </c>
+      <c r="E223">
+        <v>4698</v>
+      </c>
+      <c r="F223">
+        <v>51916</v>
+      </c>
+      <c r="G223">
+        <v>3497</v>
+      </c>
+      <c r="H223">
+        <v>48419</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6859,6 +6862,32 @@
         <v>48419</v>
       </c>
     </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224">
+        <v>57080</v>
+      </c>
+      <c r="C224">
+        <v>4671</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224">
+        <v>4662</v>
+      </c>
+      <c r="F224">
+        <v>52408</v>
+      </c>
+      <c r="G224">
+        <v>4553</v>
+      </c>
+      <c r="H224">
+        <v>47855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6888,6 +6891,32 @@
         <v>47855</v>
       </c>
     </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
+        <v>57000</v>
+      </c>
+      <c r="C225">
+        <v>4633</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225">
+        <v>4624</v>
+      </c>
+      <c r="F225">
+        <v>52367</v>
+      </c>
+      <c r="G225">
+        <v>4424</v>
+      </c>
+      <c r="H225">
+        <v>47943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Inversión Extranjera Directa 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6917,6 +6920,32 @@
         <v>47943</v>
       </c>
     </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226">
+        <v>56921</v>
+      </c>
+      <c r="C226">
+        <v>4512</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226">
+        <v>4504</v>
+      </c>
+      <c r="F226">
+        <v>52409</v>
+      </c>
+      <c r="G226">
+        <v>3983</v>
+      </c>
+      <c r="H226">
+        <v>48425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
